--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_105.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_105.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:07.580000', '0:00:20.100000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(7.02, 24.78)]</t>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
@@ -618,587 +626,562 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[('0:00:02.640000', '0:00:19.060000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:59.600000', '0:01:10.340000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0572717806317251</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['C:min', 'C:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
+          <t>[('0:00:31.800000', '0:00:48.540000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.060000', '0:00:06.451609')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[('0:01:00.854263', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:49.060000', '0:00:57.320000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5535714285714286</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(7.54, 16.72)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:04.605000', '0:00:21.095000'), ('0:00:03.509000', '0:00:18.764000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:09.540000', '0:00:13.280000'), ('0:00:08.960000', '0:00:12.680000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:dim7', 'C:maj', 'F:maj/A']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(15.4, 17.9)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[('0:01:36.660000', '0:01:46.300000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:36.740000', '0:01:48.820000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.08, 19.46)]</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:32.200000', '0:00:33.700000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.605464, 10.96619)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.935986, 12.498707)]</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(6.04, 110.76)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(5.44, 113.76)]</t>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(18.64, 28.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.08, 43.34)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
